--- a/Results/Results_SP500_horizon1.xlsx
+++ b/Results/Results_SP500_horizon1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,12 +585,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.33 (0.13)</t>
+          <t>0.34 (0.13)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.31 (0.47)</t>
+          <t>1.35 (0.47)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>44.55 (6.36)</t>
+          <t>45.45 (7.40)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,31 +610,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>max\_depth: 16, max\_features: 4 \\</t>
+          <t>max\_depth: 12, max\_features: 2 \\</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.24384239 0.43622015 0.24522165 0.25598567 0.37770255 0.26740197
- 0.1942106  0.60229545 0.20292314 0.47395498]</t>
+          <t>[0.21144201 0.47642233 0.26677863 0.25588001 0.3798767  0.25949668
+ 0.23511912 0.60278344 0.21898289 0.47517539]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1.07850288 1.56612542 1.12243324 0.9764228  1.35688088 1.08408518
- 0.93739068 2.2275968  0.7205248  2.05710196]</t>
+          <t>[0.9351976  1.71046    1.22110427 0.97601981 1.36469141 1.05203602
+ 1.13484263 2.22940161 0.77754862 2.06239889]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.05806347 0.03297842 0.01825608 0.02500154 0.01997984 0.01971849
- 0.0068938  0.03029557 0.01030158 0.02541087]</t>
+          <t>[0.04677198 0.03692949 0.01945853 0.02501445 0.02040568 0.01826903
+ 0.00898277 0.03034524 0.0114187  0.02531714]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.90909091 43.18181818 40.90909091 40.90909091 43.18181818 47.72727273
- 50.         34.09090909 59.09090909 45.45454545]</t>
+          <t>[43.18181818 34.09090909 47.72727273 45.45454545 43.18181818 59.09090909
+ 47.72727273 34.09090909 54.54545455 45.45454545]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.33 $\pm$ 0.13 &amp; 1.31 $\pm$ 0.47 &amp; 0.02 $\pm$ 1.35 &amp; 44.55 $\pm$ 6.36 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.34 $\pm$ 0.13 &amp; 1.35 $\pm$ 0.47 &amp; 0.02 $\pm$ 1.09 &amp; 45.45 $\pm$ 7.40 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.03 (1.88)</t>
+          <t>3.01 (1.90)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>42.27 (5.20)</t>
+          <t>41.59 (5.48)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -689,25 +689,25 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.1377848  0.41072703 0.34546888 0.46175783 1.06696935 0.62244749
- 1.47452331 0.93051138 0.73058843 1.2318279 ]</t>
+          <t>[0.12989643 0.36643971 0.34030875 0.46456363 1.11027701 0.61699223
+ 1.46840853 0.90806431 0.73376069 1.22973544]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.60941539 1.47459954 1.58128676 1.761313   3.8330435  2.52348961
- 7.11703893 3.44150725 2.59412058 5.34649007]</t>
+          <t>[0.57452549 1.31559842 1.55766771 1.77201534 3.9886245  2.5013732
+ 7.0875249  3.35848651 2.60538439 5.33740818]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.03027056 0.03017019 0.02866418 0.04821839 0.07297389 0.05974987
- 0.06691191 0.04953916 0.04133251 0.07244465]</t>
+          <t>[0.02785669 0.02684477 0.02819671 0.04865256 0.07615919 0.05912398
+ 0.06662858 0.04822922 0.04154391 0.0723169 ]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[36.36363636 36.36363636 40.90909091 45.45454545 40.90909091 47.72727273
+          <t>[34.09090909 36.36363636 38.63636364 43.18181818 40.90909091 47.72727273
  50.         34.09090909 47.72727273 43.18181818]</t>
         </is>
       </c>
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.74 $\pm$ 0.41 &amp; 3.03 $\pm$ 1.88 &amp; 0.05 $\pm$ 1.65 &amp; 42.27 $\pm$ 5.20 &amp; "-"</t>
+          <t>Random Forest &amp; 0.74 $\pm$ 0.41 &amp; 3.01 $\pm$ 1.90 &amp; 0.05 $\pm$ 1.77 &amp; 41.59 $\pm$ 5.48 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -837,20 +837,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.49991472 0.67526945 0.98805562 0.88070223 1.96435809 1.36818606
- 3.21797778 2.51584156 1.9072976  1.92366141]</t>
+          <t>[0.49991472 0.67526945 0.98805562 0.88070223 1.96435809 1.36818614
+ 3.21797595 2.51580972 1.90853686 1.92366141]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[ 2.21109817  2.42436448  4.52254712  3.35931991  7.05687563  5.54681858
- 15.53212007  9.30486953  6.77229439  8.34924799]</t>
+          <t>[ 2.21109817  2.42436448  4.52254712  3.35931991  7.05687563  5.54681891
+ 15.53211121  9.30475175  6.77669468  8.34924799]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.12676622 0.05363706 0.09813414 0.10304164 0.13830883 0.14205683
- 0.14735962 0.13991438 0.11676761 0.11485061]</t>
+          <t>[0.12676622 0.05363706 0.09813414 0.10304164 0.13830883 0.14205684
+ 0.14735954 0.13991262 0.11684309 0.11485061]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.43 (0.19)</t>
+          <t>0.32 (0.13)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.73 (0.75)</t>
+          <t>1.26 (0.49)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.03 (0.01)</t>
+          <t>0.02 (0.01)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>45.68 (6.62)</t>
+          <t>45.68 (6.54)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -906,30 +906,30 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.05, max\_depth: 12, max\_features: 8, n\_estimators: 50 \\</t>
+          <t>learning\_rate: 0.05, max\_depth: 20, max\_features: 10, n\_estimators: 200 \\</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.17017079 0.42336653 0.26786772 0.2913362  0.49553231 0.33717975
- 0.42769127 0.82977213 0.37549338 0.70189585]</t>
+          <t>[0.18140307 0.39696268 0.22505472 0.25824896 0.37787459 0.26095543
+ 0.19734497 0.60220499 0.20415923 0.47468463]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.75265703 1.51997811 1.22608927 1.11126264 1.78017946 1.36697409
- 2.06432506 3.06892197 1.33327473 3.0464314 ]</t>
+          <t>[0.80233682 1.42518252 1.03012475 0.98505582 1.35749892 1.05794999
+ 0.95251926 2.22726222 0.72491382 2.06026886]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.03773154 0.03281165 0.02121455 0.02809229 0.02951983 0.02729108
- 0.01819101 0.04384771 0.02108932 0.03978499]</t>
+          <t>[0.04143119 0.03097901 0.01674704 0.02540028 0.02005507 0.01872553
+ 0.00704245 0.03026725 0.01038019 0.02546013]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[38.63636364 40.90909091 47.72727273 45.45454545 47.72727273 43.18181818
+          <t>[40.90909091 40.90909091 45.45454545 40.90909091 47.72727273 47.72727273
  54.54545455 36.36363636 59.09090909 43.18181818]</t>
         </is>
       </c>
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.43 $\pm$ 0.19 &amp; 1.73 $\pm$ 0.75 &amp; 0.03 $\pm$ 0.81 &amp; 45.68 $\pm$ 6.62 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.32 $\pm$ 0.13 &amp; 1.26 $\pm$ 0.49 &amp; 0.02 $\pm$ 0.97 &amp; 45.68 $\pm$ 6.54 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.13 (0.02)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.52 (0.13)</t>
+          <t>0.55 (0.13)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>51.14 (8.15)</t>
+          <t>51.14 (8.64)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1133,26 +1133,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.13372586 0.16456715 0.11752569 0.0968366  0.11842271 0.08811824
- 0.15717661 0.11818772 0.13321985 0.16004456]</t>
+          <t>[0.13742857 0.1657143  0.11758184 0.09652961 0.1742767  0.0881324
+ 0.15704401 0.11753256 0.13349608 0.16015689]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[0.59146291 0.59083193 0.53794083 0.36937014 0.42542873 0.35724374
- 0.75863978 0.43711868 0.47302739 0.69463979]</t>
+          <t>[0.60783979 0.59495044 0.53819786 0.36819918 0.62608186 0.35730113
+ 0.75799979 0.43469555 0.47400822 0.6951273 ]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.0294259  0.00947228 0.00938836 0.00949033 0.00599175 0.00715658
- 0.00542902 0.00497313 0.00645985 0.0074627 ]</t>
+          <t>[0.03018299 0.00958669 0.00932696 0.0094543  0.01048664 0.00712567
+ 0.00542655 0.00496188 0.00647336 0.00746023]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[36.36363636 43.18181818 50.         50.         54.54545455 45.45454545
- 50.         65.90909091 61.36363636 54.54545455]</t>
+          <t>[36.36363636 43.18181818 50.         47.72727273 54.54545455 45.45454545
+ 50.         68.18181818 61.36363636 54.54545455]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.13 $\pm$ 0.02 &amp; 0.52 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.68 &amp; 51.14 $\pm$ 8.15 &amp; "-"</t>
+          <t>MLP &amp; 0.13 $\pm$ 0.03 &amp; 0.55 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.69 &amp; 51.14 $\pm$ 8.64 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.23 (8.29)</t>
+          <t>50.45 (8.43)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.11673797 0.16785056 0.12593072 0.09781408 0.1203545  0.09116985
- 0.1544029  0.12013428 0.1401219  0.17116911]</t>
+          <t>[0.11344393 0.16879326 0.12681065 0.09759257 0.12114341 0.09125999
+ 0.1552742  0.12000823 0.13986731 0.17119585]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[0.5163263  0.60262008 0.5764125  0.37309862 0.43236859 0.36961537
- 0.74525201 0.44431803 0.4975347  0.74292355]</t>
+          <t>[0.50175692 0.6060046  0.58044012 0.3722537  0.43520273 0.36998082
+ 0.74945749 0.44385183 0.49663075 0.74303958]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.02440912 0.00972148 0.01015997 0.00972911 0.00621586 0.00734369
- 0.00526256 0.0049787  0.00676548 0.00798475]</t>
+          <t>[0.02372692 0.00977928 0.0100498  0.00977136 0.00622378 0.00730037
+ 0.00528453 0.00494393 0.00675961 0.00796742]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>[34.09090909 47.72727273 54.54545455 50.         52.27272727 43.18181818
- 50.         68.18181818 54.54545455 47.72727273]</t>
+ 50.         68.18181818 56.81818182 47.72727273]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.13 $\pm$ 0.03 &amp; 0.53 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.53 &amp; 50.23 $\pm$ 8.29 &amp; "-"</t>
+          <t>CNN &amp; 0.13 $\pm$ 0.03 &amp; 0.53 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.52 &amp; 50.45 $\pm$ 8.43 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.13 (1.36)</t>
+          <t>2.14 (1.37)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.68 (5.94)</t>
+          <t>8.73 (6.01)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.14 (0.06)</t>
+          <t>0.15 (0.06)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1281,20 +1281,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.22358846 0.63018941 1.04331213 0.95519155 2.18533426 1.64499926
- 4.1517601  3.68788574 3.21316037 3.56651077]</t>
+          <t>[0.22359809 0.65836588 1.03868589 0.95349214 2.19379197 1.63749526
+ 4.20135707 3.70929365 3.21614203 3.60635735]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ 0.98892073  2.26251732  4.77546827  3.64344938  7.85072343  6.66905823
- 20.03918011 13.63968865 11.40905748 15.47969028]</t>
+          <t>[ 0.98896335  2.36367697  4.75429296  3.63696722  7.8811074   6.63863596
+ 20.27856837 13.71886606 11.41964453 15.65263595]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.05025422 0.04884051 0.10363331 0.11181621 0.15388767 0.17093372
- 0.19017846 0.20514282 0.19699446 0.21335858]</t>
+          <t>[0.05030299 0.05155808 0.10315093 0.11159949 0.15449433 0.17013337
+ 0.19245691 0.20634124 0.19717892 0.21575413]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 2.13 $\pm$ 1.36 &amp; 8.68 $\pm$ 5.94 &amp; 0.14 $\pm$ 5.90 &amp; 41.82 $\pm$ 5.40 &amp; "-"</t>
+          <t>RNN &amp; 2.14 $\pm$ 1.37 &amp; 8.73 $\pm$ 6.01 &amp; 0.15 $\pm$ 5.92 &amp; 41.82 $\pm$ 5.40 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.52 (1.32)</t>
+          <t>1.55 (1.28)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.26 (5.80)</t>
+          <t>6.55 (6.04)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>46.36 (6.83)</t>
+          <t>48.64 (8.02)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,26 +1355,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.22383098 0.61285441 1.02942293 0.94161294 2.18073371 1.62214383
- 4.09687172 3.68916306 0.28226062 0.53238314]</t>
+          <t>[0.22357042 0.67643025 1.02434882 0.92866616 2.15974484 1.62843801
+ 4.15235909 0.73093477 0.38152337 3.5528321 ]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[ 0.98999341  2.20028089  4.71189435  3.59165558  7.83419613  6.57639909
- 19.77425194 13.64441285  1.00223058  2.31069711]</t>
+          <t>[ 0.98884095  2.42853202  4.68866903  3.54227185  7.75879451  6.60191658
+ 20.04207121  2.7033708   1.35468558 15.42032087]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.05085379 0.04715461 0.10218483 0.11008367 0.15355767 0.16849577
- 0.18765685 0.20521433 0.01503691 0.02904956]</t>
+          <t>[0.05022719 0.05328721 0.10165537 0.10842978 0.15205195 0.16916724
+ 0.19020598 0.03804122 0.01981045 0.21253646]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[52.27272727 43.18181818 45.45454545 40.90909091 45.45454545 45.45454545
- 43.18181818 34.09090909 54.54545455 59.09090909]</t>
+          <t>[45.45454545 47.72727273 34.09090909 43.18181818 40.90909091 50.
+ 50.         63.63636364 54.54545455 56.81818182]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 1.52 $\pm$ 1.32 &amp; 6.26 $\pm$ 5.80 &amp; 0.11 $\pm$ 6.59 &amp; 46.36 $\pm$ 6.83 &amp; "-"</t>
+          <t>LSTM &amp; 1.55 $\pm$ 1.28 &amp; 6.55 $\pm$ 6.04 &amp; 0.11 $\pm$ 6.51 &amp; 48.64 $\pm$ 8.02 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12.32 (5.18)</t>
+          <t>12.33 (5.19)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>45.00 (7.46)</t>
+          <t>44.55 (8.21)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1429,26 +1429,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[2.577393   5.79331285 4.28482234 2.97716921 3.65746911 2.17224158
- 3.64454401 2.57488339 1.62598609 1.20334785]</t>
+          <t>[2.57320833 5.79593783 4.2882208  2.97587086 3.65776513 2.17476912
+ 3.64520085 2.5794773  1.62532508 1.20243751]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[11.39968226 20.79925558 19.61257084 11.35601049 13.13930731  8.8065727
- 17.59101492  9.52323643  5.77343382  5.22287838]</t>
+          <t>[11.38117366 20.80867984 19.62812637 11.35105811 13.14037077  8.81681969
+ 17.59418528  9.54022705  5.77108674  5.21892726]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.69707033 0.5039439  0.43602309 0.36299847 0.25914442 0.22701239
- 0.166873   0.14276444 0.09843781 0.07070611]</t>
+          <t>[0.69592339 0.50417302 0.43637018 0.36283851 0.25916555 0.22728068
+ 0.1669032  0.14302229 0.09839583 0.07065096]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[40.90909091 36.36363636 34.09090909 43.18181818 40.90909091 47.72727273
- 43.18181818 54.54545455 59.09090909 50.        ]</t>
+          <t>[40.90909091 36.36363636 34.09090909 43.18181818 40.90909091 50.
+ 36.36363636 52.27272727 61.36363636 50.        ]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 3.05 $\pm$ 1.28 &amp; 12.32 $\pm$ 5.18 &amp; 0.30 $\pm$ 19.09 &amp; 45.00 $\pm$ 7.46 &amp; "-"</t>
+          <t>GRU &amp; 3.05 $\pm$ 1.28 &amp; 12.33 $\pm$ 5.19 &amp; 0.30 $\pm$ 19.06 &amp; 44.55 $\pm$ 8.21 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.56 (0.14)</t>
+          <t>0.55 (0.14)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>51.14 (9.44)</t>
+          <t>51.36 (8.02)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.16590401 0.17097539 0.1239113  0.09912049 0.12296499 0.09146242
- 0.16114737 0.12472947 0.13961947 0.16711726]</t>
+          <t>[0.1507677  0.17213258 0.12566187 0.09966601 0.1221523  0.09088083
+ 0.16311941 0.12327096 0.13886106 0.16704057]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[0.73378526 0.6138389  0.56716915 0.37808175 0.44174667 0.3708015
- 0.77780536 0.46131341 0.49575071 0.72533735]</t>
+          <t>[0.6668381  0.61799348 0.5751819  0.38016256 0.4388271  0.36844366
+ 0.78732371 0.45591909 0.49305782 0.72500446]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.0335832  0.0099547  0.00994677 0.00983226 0.00638882 0.00744576
- 0.00548969 0.00516575 0.00674469 0.00775919]</t>
+          <t>[0.03207912 0.01000425 0.01007433 0.00984913 0.00629274 0.0073845
+ 0.00563155 0.00514342 0.00670733 0.00775595]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[38.63636364 52.27272727 56.81818182 45.45454545 50.         40.90909091
- 45.45454545 72.72727273 59.09090909 50.        ]</t>
+          <t>[40.90909091 54.54545455 56.81818182 43.18181818 50.         43.18181818
+ 47.72727273 68.18181818 59.09090909 50.        ]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.14 $\pm$ 0.03 &amp; 0.56 $\pm$ 0.14 &amp; 0.01 $\pm$ 0.80 &amp; 51.14 $\pm$ 9.44 &amp; "-"</t>
+          <t>WaveNet &amp; 0.14 $\pm$ 0.03 &amp; 0.55 $\pm$ 0.14 &amp; 0.01 $\pm$ 0.75 &amp; 51.36 $\pm$ 8.02 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.54 (0.13)</t>
+          <t>0.54 (0.12)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1562,51 +1562,51 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>49.32 (8.07)</t>
+          <t>49.55 (7.79)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>omega: 500, r: 0.7 \\</t>
+          <t>omega: 250, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.11341501 0.20054546 0.12312004 0.10840511 0.13607356 0.09354105
- 0.15673415 0.11792683 0.13150506 0.15583795]</t>
+          <t>[0.11116013 0.18387156 0.12257948 0.10888412 0.13829497 0.09474267
+ 0.15632356 0.11922141 0.13157917 0.15647095]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0.50162901 0.7200019  0.5635474  0.41349668 0.48883868 0.37922856
- 0.7565042  0.43615377 0.46693865 0.67638186]</t>
+          <t>[0.49165576 0.66013898 0.56107312 0.4153238  0.496819   0.3841001
+ 0.75452238 0.44094177 0.4672018  0.67912927]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.02483951 0.0133656  0.0104565  0.01061659 0.00745483 0.00781329
- 0.00549393 0.0050184  0.0062593  0.00738749]</t>
+          <t>[0.02413618 0.01122058 0.01032935 0.01068556 0.00763023 0.00793974
+ 0.00545725 0.0050968  0.0062697  0.00742309]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[36.36363636 47.72727273 52.27272727 38.63636364 59.09090909 45.45454545
- 50.         63.63636364 54.54545455 45.45454545]</t>
+          <t>[36.36363636 45.45454545 52.27272727 40.90909091 59.09090909 45.45454545
+ 50.         63.63636364 54.54545455 47.72727273]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[3. 4. 4. 4. 4. 4. 4. 4. 4. 4.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.13 $\pm$ 0.03 &amp; 0.54 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.56 &amp; 49.32 $\pm$ 8.07 &amp; 4 $\pm$ 0</t>
+          <t>eTS &amp; 0.13 $\pm$ 0.03 &amp; 0.54 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.52 &amp; 49.55 $\pm$ 7.79 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.16 (0.04)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.64 (0.19)</t>
+          <t>0.54 (0.12)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1636,51 +1636,51 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>51.36 (7.89)</t>
+          <t>49.55 (7.79)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>56 (24)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.1 \\</t>
+          <t>omega: 250, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.18200158 0.22624705 0.14629092 0.11878903 0.15566352 0.08909448
- 0.20974497 0.12676138 0.14017541 0.16386412]</t>
+          <t>[0.11116013 0.18387156 0.12257948 0.10888412 0.13829497 0.09474267
+ 0.15632356 0.11922141 0.13157917 0.15647095]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[0.80498403 0.81227621 0.66960559 0.45310475 0.55921479 0.36120156
- 1.01236996 0.46882844 0.4977247  0.71121775]</t>
+          <t>[0.49165576 0.66013898 0.56107312 0.4153238  0.496819   0.3841001
+ 0.75452238 0.44094177 0.4672018  0.67912927]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.04288792 0.01671719 0.01061224 0.01192431 0.00829816 0.00718606
- 0.00791833 0.00547171 0.00673767 0.00782597]</t>
+          <t>[0.02413618 0.01122058 0.01032935 0.01068556 0.00763023 0.00793974
+ 0.00545725 0.0050968  0.0062697  0.00742309]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[43.18181818 43.18181818 50.         45.45454545 54.54545455 45.45454545
- 50.         70.45454545 56.81818182 54.54545455]</t>
+          <t>[36.36363636 45.45454545 52.27272727 40.90909091 59.09090909 45.45454545
+ 50.         63.63636364 54.54545455 47.72727273]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[53. 98. 44. 88. 36. 81. 26. 63. 37. 38.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.16 $\pm$ 0.04 &amp; 0.64 $\pm$ 0.19 &amp; 0.01 $\pm$ 1.06 &amp; 51.36 $\pm$ 7.89 &amp; 56 $\pm$ 24</t>
+          <t>Simpl\_eTS &amp; 0.13 $\pm$ 0.03 &amp; 0.54 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.52 &amp; 49.55 $\pm$ 7.79 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,66 +1695,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.15 (0.06)</t>
+          <t>0.14 (0.04)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.63 (0.25)</t>
+          <t>0.57 (0.16)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.01 (0.02)</t>
+          <t>0.01 (0.01)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>51.36 (7.27)</t>
+          <t>49.09 (7.34)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4 (0)</t>
+          <t>3 (0)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>mu: 0.1, omega: 50 \\</t>
+          <t>mu: 0.7, omega: 250 \\</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.25548944 0.2725002  0.12023767 0.10361127 0.12909569 0.09184708
- 0.15777492 0.12125559 0.13309061 0.15802221]</t>
+          <t>[0.11314172 0.25308833 0.13440969 0.10967708 0.1374063  0.09423707
+ 0.15507755 0.1217247  0.13005929 0.15533481]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[1.13001719 0.97833512 0.55035415 0.39521121 0.46377095 0.37236097
- 0.76152764 0.44846521 0.47256851 0.68586217]</t>
+          <t>[0.50042027 0.90864227 0.61522259 0.41834843 0.4936265  0.38205032
+ 0.74850833 0.45020023 0.46180513 0.67419808]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.06334626 0.0213955  0.01011877 0.01027236 0.00690032 0.00769316
- 0.00549537 0.00516986 0.00639252 0.00744191]</t>
+          <t>[0.02585281 0.01941495 0.0117124  0.01082975 0.00764055 0.00797371
+ 0.00536135 0.00530822 0.00622782 0.00742786]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[45.45454545 45.45454545 50.         43.18181818 54.54545455 45.45454545
- 52.27272727 68.18181818 59.09090909 50.        ]</t>
+          <t>[34.09090909 47.72727273 50.         45.45454545 54.54545455 45.45454545
+ 50.         63.63636364 54.54545455 45.45454545]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[4. 4. 4. 4. 4. 4. 4. 4. 4. 4.]</t>
+          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.15 $\pm$ 0.06 &amp; 0.63 $\pm$ 0.25 &amp; 0.01 $\pm$ 1.69 &amp; 51.36 $\pm$ 7.27 &amp; 4 $\pm$ 0</t>
+          <t>exTS &amp; 0.14 $\pm$ 0.04 &amp; 0.57 $\pm$ 0.16 &amp; 0.01 $\pm$ 0.64 &amp; 49.09 $\pm$ 7.34 &amp; 3 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.2, lambda1: 0.1, r: 0.25, s: 10000 \\</t>
+          <t>alpha: 0.001, beta: 0.2, lambda1: 0.001, omega: 10000, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.25 (0.11)</t>
+          <t>0.24 (0.09)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.01 (0.41)</t>
+          <t>0.98 (0.39)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1858,51 +1858,51 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>53.18 (8.64)</t>
+          <t>50.45 (8.79)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12 (2)</t>
+          <t>19 (5)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.1, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.29574348 0.48488412 0.12537869 0.11934467 0.37718169 0.26682045
- 0.15503523 0.17144252 0.21246359 0.32406878]</t>
+          <t>[0.30737238 0.37024295 0.14249485 0.15439426 0.2529222  0.2644479
+ 0.15314283 0.24809456 0.13261443 0.41601065]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[1.30805883 1.74083964 0.57388575 0.45522415 1.35500972 1.08172762
- 0.74830405 0.63408217 0.75440035 1.40655242]</t>
+          <t>[1.35949288 1.32925287 0.65223017 0.58891609 0.90861261 1.07210894
+ 0.73917006 0.91758063 0.47087773 1.80560677]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.06099004 0.03899247 0.01010629 0.01234275 0.02027849 0.01962908
- 0.00549259 0.00797069 0.01097297 0.01691235]</t>
+          <t>[0.06340444 0.0290108  0.01153684 0.01513337 0.01370341 0.01906414
+ 0.00520951 0.01246136 0.00664391 0.02219325]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[52.27272727 47.72727273 61.36363636 40.90909091 52.27272727 63.63636364
- 40.90909091 68.18181818 54.54545455 50.        ]</t>
+          <t>[52.27272727 43.18181818 63.63636364 38.63636364 50.         47.72727273
+ 38.63636364 63.63636364 59.09090909 47.72727273]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[ 8. 10. 10. 11. 12. 12. 14. 14. 15. 16.]</t>
+          <t>[12. 14. 14. 16. 18. 20. 22. 23. 25. 25.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.25 $\pm$ 0.11 &amp; 1.01 $\pm$ 0.41 &amp; 0.02 $\pm$ 1.63 &amp; 53.18 $\pm$ 8.64 &amp; 12 $\pm$ 2</t>
+          <t>eMG &amp; 0.24 $\pm$ 0.09 &amp; 0.98 $\pm$ 0.39 &amp; 0.02 $\pm$ 1.60 &amp; 50.45 $\pm$ 8.79 &amp; 19 $\pm$ 5</t>
         </is>
       </c>
     </row>
@@ -1917,66 +1917,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.96 (2.38)</t>
+          <t>0.13 (0.02)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.52 (8.42)</t>
+          <t>0.53 (0.12)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.06 (0.15)</t>
+          <t>0.01 (0.01)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>49.32 (6.97)</t>
+          <t>49.77 (7.70)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3 (1)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.75, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.33082962 0.19314122 0.11425846 0.10137699 0.12203011 0.08781962
- 0.30036565 0.12156135 8.09650937 0.15924323]</t>
+          <t>[0.11572254 0.18054115 0.12190411 0.10707268 0.13442456 0.09351626
+ 0.15656797 0.11941548 0.13141964 0.15668708]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[ 1.46324313  0.69341908  0.52298602  0.38668888  0.43838814  0.35603309
-  1.44976619  0.44959607 28.74849995  0.69116178]</t>
+          <t>[0.5118351  0.64818208 0.55798184 0.4084143  0.4829147  0.37912805
+ 0.75570206 0.44165954 0.46663535 0.68006735]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.07548827 0.01268553 0.00952403 0.0097015  0.00622065 0.00707173
- 0.01174447 0.00506909 0.49874708 0.0075203 ]</t>
+          <t>[0.02547595 0.01102453 0.01043518 0.01045697 0.0073409  0.00784545
+ 0.00547134 0.00510487 0.00628878 0.00741872]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[38.63636364 45.45454545 50.         43.18181818 54.54545455 45.45454545
- 50.         63.63636364 56.81818182 45.45454545]</t>
+          <t>[36.36363636 47.72727273 52.27272727 40.90909091 59.09090909 45.45454545
+ 50.         63.63636364 54.54545455 47.72727273]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[2. 3. 2. 3. 3. 3. 4. 4. 4. 4.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.96 $\pm$ 2.38 &amp; 3.52 $\pm$ 8.42 &amp; 0.06 $\pm$ 14.62 &amp; 49.32 $\pm$ 6.97 &amp; 3 $\pm$ 1</t>
+          <t>ePL+ &amp; 0.13 $\pm$ 0.02 &amp; 0.53 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.56 &amp; 49.77 $\pm$ 7.70 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.42 (0.29)</t>
+          <t>0.92 (0.37)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.66 (1.03)</t>
+          <t>3.72 (1.48)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.03 (0.02)</t>
+          <t>0.05 (0.04)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>46.59 (7.28)</t>
+          <t>49.32 (7.61)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>32 (4)</t>
+          <t>14 (3)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.25, e\_utility: 0.03, lambda1: 1e-07, sigma: 10 \\</t>
+          <t>alpha: 0.05, beta: 0.1, e\_utility: 0.05, lambda1: 0.001, sigma: 0.5 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.33892501 0.56815392 0.30702188 0.37159322 1.17864526 0.47980834
- 0.46723636 0.11883727 0.19648494 0.16433367]</t>
+          <t>[0.71513412 0.62071858 0.54396759 0.72254287 1.69844788 1.43560564
+ 1.22730625 0.7658866  0.79429507 0.6999852 ]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[1.49904862 2.03979638 1.40530643 1.41739224 4.23423463 1.94521044
- 2.25519618 0.43952102 0.69766453 0.71325576]</t>
+          <t>[3.16300297 2.22851497 2.48985888 2.75604237 6.10160414 5.82014704
+ 5.92380348 2.83264057 2.82032551 3.03813862]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.08249153 0.03589511 0.02417633 0.02437097 0.03273211 0.01915073
- 0.01436919 0.00516867 0.00920584 0.00787255]</t>
+          <t>[0.15701311 0.03708926 0.03074976 0.03388488 0.04689208 0.07326266
+ 0.03053026 0.03697057 0.0156478  0.03448595]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[56.81818182 45.45454545 45.45454545 40.90909091 38.63636364 34.09090909
- 47.72727273 59.09090909 50.         47.72727273]</t>
+          <t>[40.90909091 47.72727273 50.         36.36363636 59.09090909 47.72727273
+ 43.18181818 56.81818182 61.36363636 50.        ]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[21. 33. 33. 33. 33. 33. 33. 33. 33. 33.]</t>
+          <t>[16. 20. 17. 16. 16. 14. 11. 11. 11.  8.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 0.42 $\pm$ 0.29 &amp; 1.66 $\pm$ 1.03 &amp; 0.03 $\pm$ 2.14 &amp; 46.59 $\pm$ 7.28 &amp; 32 $\pm$ 4</t>
+          <t>ePL-KRLS-DISCO &amp; 0.92 $\pm$ 0.37 &amp; 3.72 $\pm$ 1.48 &amp; 0.05 $\pm$ 3.84 &amp; 49.32 $\pm$ 7.61 &amp; 14 $\pm$ 3</t>
         </is>
       </c>
     </row>
@@ -2065,66 +2065,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.96 (0.35)</t>
+          <t>0.94 (0.63)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.89 (1.54)</t>
+          <t>3.78 (2.34)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.06 (0.02)</t>
+          <t>0.06 (0.03)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>47.05 (7.47)</t>
+          <t>47.50 (7.97)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>7 (0)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: minmax, rules: 6 \\</t>
+          <t>fuzzy\_operator: minmax, rules: 7 \\</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.26527468 0.45685287 1.28301139 1.21144685 1.40044609 0.95006081
- 1.15472954 1.05631431 0.69939956 1.09416878]</t>
+          <t>[0.24715967 0.45114388 1.17718343 0.496662   2.64279894 0.87124923
+ 1.02982276 0.94731592 0.61532534 0.95852802]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[1.17329686 1.64020135 5.8726243  4.62090065 5.03104498 3.85168006
- 5.57349959 3.90679087 2.48337739 4.7490096 ]</t>
+          <t>[1.09317503 1.61970485 5.38822655 1.89445022 9.49414646 3.53216686
+ 4.97061568 3.50365905 2.18485272 4.16028939]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.06507785 0.03593205 0.0816921  0.08982832 0.07490694 0.06778778
- 0.052054   0.05683345 0.03924532 0.06401708]</t>
+          <t>[0.06119577 0.03618525 0.0679885  0.03487038 0.13266458 0.06036163
+ 0.04621901 0.05051783 0.03353654 0.05562294]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[38.63636364 47.72727273 45.45454545 61.36363636 43.18181818 50.
- 45.45454545 38.63636364 40.90909091 59.09090909]</t>
+          <t>[38.63636364 45.45454545 47.72727273 52.27272727 45.45454545 34.09090909
+ 52.27272727 40.90909091 61.36363636 56.81818182]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[6. 6. 6. 6. 6. 6. 6. 6. 6. 6.]</t>
+          <t>[7. 7. 7. 7. 7. 7. 7. 7. 7. 7.]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.96 $\pm$ 0.35 &amp; 3.89 $\pm$ 1.54 &amp; 0.06 $\pm$ 1.64 &amp; 47.05 $\pm$ 7.47 &amp; 6 $\pm$ 0</t>
+          <t>NMR &amp; 0.94 $\pm$ 0.63 &amp; 3.78 $\pm$ 2.34 &amp; 0.06 $\pm$ 2.74 &amp; 47.50 $\pm$ 7.97 &amp; 7 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2218,61 +2218,61 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.54 (0.12)</t>
+          <t>0.53 (0.12)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.01 (0.00)</t>
+          <t>0.01 (0.01)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>49.55 (8.79)</t>
+          <t>49.77 (8.59)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: max, rules: 2 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.10272185 0.18772199 0.12370746 0.10981928 0.1418522  0.09592217
- 0.15607182 0.11915903 0.13209115 0.15645527]</t>
+          <t>[0.11338965 0.18648803 0.12203022 0.1076814  0.1364426  0.09382136
+ 0.15602587 0.11765356 0.13144913 0.15589446]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.45433368 0.67396286 0.56623617 0.41889085 0.50959818 0.38888195
- 0.75330735 0.44071106 0.46901972 0.6790612 ]</t>
+          <t>[0.50151682 0.66953266 0.55855908 0.41073619 0.49016444 0.38036499
+ 0.75308555 0.43514309 0.46674008 0.67662714]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.02171752 0.01156827 0.01021257 0.01084922 0.00788385 0.00802388
- 0.00543511 0.00510225 0.00628871 0.00743259]</t>
+          <t>[0.02510177 0.0114639  0.01013234 0.01060328 0.00748002 0.00781043
+ 0.00545145 0.00502087 0.0062562  0.0074062 ]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[34.09090909 43.18181818 54.54545455 40.90909091 56.81818182 43.18181818
- 52.27272727 65.90909091 54.54545455 50.        ]</t>
+          <t>[36.36363636 43.18181818 54.54545455 40.90909091 59.09090909 45.45454545
+ 52.27272727 65.90909091 54.54545455 45.45454545]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
+          <t>[2. 2. 2. 2. 2. 2. 2. 2. 2. 2.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.13 $\pm$ 0.03 &amp; 0.54 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.46 &amp; 49.55 $\pm$ 8.79 &amp; 1 $\pm$ 0</t>
+          <t>NTSK-wRLS &amp; 0.13 $\pm$ 0.03 &amp; 0.53 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.55 &amp; 49.77 $\pm$ 8.59 &amp; 2 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1.18 (0.91)</t>
+          <t>1.29 (0.97)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.64 (3.31)</t>
+          <t>5.08 (3.52)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2302,51 +2302,51 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>49.09 (8.14)</t>
+          <t>48.18 (11.97)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9 (0)</t>
+          <t>11 (0)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: RMSE, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 9, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: CPPM, fuzzy\_operator: prod, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 11, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.21243285 0.81970265 1.55281493 1.22471631 3.5976655  1.55708902
- 0.62075732 0.88581282 0.4161858  0.8720405 ]</t>
+          <t>[0.23620813 0.45517206 1.27367889 1.45568977 3.60773696 1.82835676
+ 0.44373201 1.80595544 0.35198248 1.4509952 ]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[ 0.93958003  2.94291115  7.10757422  4.67151521 12.92446532  6.31265775
-  2.99619135  3.27618911  1.47776244  3.78490849]</t>
+          <t>[ 1.04473694  1.63416688  5.82990741  5.55253234 12.96064662  7.41241528
+  2.14174844  6.67934736  1.24979395  6.29773967]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.0514813  0.06895207 0.13827099 0.10659592 0.21345942 0.08805786
- 0.02692632 0.04670709 0.02106325 0.05031488]</t>
+          <t>[0.05844614 0.0359846  0.0834088  0.11933381 0.22229947 0.10983566
+ 0.01850249 0.07232003 0.01857153 0.05984852]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[36.36363636 52.27272727 47.72727273 56.81818182 59.09090909 56.81818182
- 43.18181818 36.36363636 45.45454545 56.81818182]</t>
+          <t>[31.81818182 56.81818182 47.72727273 45.45454545 40.90909091 65.90909091
+ 54.54545455 27.27272727 47.72727273 63.63636364]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[8. 9. 9. 9. 9. 9. 9. 9. 9. 9.]</t>
+          <t>[10. 11. 11. 11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 1.18 $\pm$ 0.91 &amp; 4.64 $\pm$ 3.31 &amp; 0.08 $\pm$ 5.58 &amp; 49.09 $\pm$ 8.14 &amp; 9 $\pm$ 0</t>
+          <t>GEN-NMR &amp; 1.29 $\pm$ 0.97 &amp; 5.08 $\pm$ 3.52 &amp; 0.08 $\pm$ 5.76 &amp; 48.18 $\pm$ 11.97 &amp; 11 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.14 (0.03)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.57 (0.17)</t>
+          <t>0.53 (0.13)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>47.05 (10.01)</t>
+          <t>48.64 (7.95)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: CPPM, fuzzy\_operator: min, lambda1: 0.98, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: MAE, fuzzy\_operator: min, lambda1: 0.98, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.09452057 0.19376684 0.13932589 0.11760301 0.12242133 0.10371472
- 0.19958437 0.12213908 0.14472651 0.15310593]</t>
+          <t>[0.10552702 0.19559306 0.1151583  0.10506769 0.11927352 0.09688406
+ 0.16432569 0.11518394 0.13371182 0.15310593]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.41805982 0.69566519 0.63772515 0.44858083 0.43979359 0.42047404
- 0.96332809 0.45173281 0.51388444 0.6645241 ]</t>
+          <t>[0.46674081 0.70222173 0.52710478 0.40076654 0.42848521 0.39278159
+ 0.79314602 0.42600917 0.47477428 0.6645241 ]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.02003177 0.01266043 0.01129282 0.01178712 0.00610192 0.00868882
- 0.00710579 0.00530902 0.00696944 0.00727468]</t>
+          <t>[0.02239271 0.01269534 0.00966525 0.01018905 0.00622716 0.00803051
+ 0.00577838 0.00505503 0.006256   0.00727468]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[36.36363636 45.45454545 59.09090909 47.72727273 43.18181818 40.90909091
- 31.81818182 68.18181818 47.72727273 50.        ]</t>
+          <t>[31.81818182 45.45454545 52.27272727 40.90909091 50.         47.72727273
+ 54.54545455 63.63636364 50.         50.        ]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.14 $\pm$ 0.03 &amp; 0.57 $\pm$ 0.17 &amp; 0.01 $\pm$ 0.42 &amp; 47.05 $\pm$ 10.01 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.13 $\pm$ 0.03 &amp; 0.53 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.49 &amp; 48.64 $\pm$ 7.95 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,22 +2435,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.14 (0.03)</t>
+          <t>0.13 (0.03)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.56 (0.13)</t>
+          <t>0.54 (0.12)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.01 (0.01)</t>
+          <t>0.01 (0.00)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>49.09 (9.38)</t>
+          <t>49.32 (8.81)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2460,31 +2460,31 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.15390109 0.18841154 0.12534904 0.1079862  0.14318168 0.09684174
- 0.16025853 0.12215949 0.13209115 0.15860027]</t>
+          <t>[0.10158377 0.18772199 0.12534904 0.11020017 0.14318168 0.10232492
+ 0.15657585 0.12067405 0.13734467 0.15548546]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.68069696 0.67643848 0.57375004 0.41189881 0.5143743  0.39261003
- 0.7735152  0.4518083  0.46901972 0.68837114]</t>
+          <t>[0.44930002 0.67396286 0.57375004 0.4203437  0.5143743  0.4148396
+ 0.75574014 0.44631437 0.48767352 0.67485194]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.03568086 0.01169396 0.0102381  0.01052547 0.00795368 0.00810435
- 0.00561455 0.00515996 0.00628871 0.00752852]</t>
+          <t>[0.02141507 0.01156827 0.0102381  0.01087616 0.00795368 0.00847315
+ 0.00546434 0.00516943 0.00650172 0.00736074]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[27.27272727 45.45454545 52.27272727 45.45454545 56.81818182 43.18181818
- 47.72727273 63.63636364 54.54545455 54.54545455]</t>
+          <t>[34.09090909 43.18181818 52.27272727 40.90909091 56.81818182 47.72727273
+ 50.         68.18181818 52.27272727 47.72727273]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.14 $\pm$ 0.03 &amp; 0.56 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.85 &amp; 49.09 $\pm$ 9.38 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.13 $\pm$ 0.03 &amp; 0.54 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.45 &amp; 49.32 $\pm$ 8.81 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2509,12 +2509,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.93 (0.34)</t>
+          <t>0.91 (0.32)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.81 (1.60)</t>
+          <t>3.72 (1.52)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2524,51 +2524,51 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50.91 (8.64)</t>
+          <t>51.59 (8.01)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: mean, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.23199069 0.75552717 1.14051517 0.84208433 1.10769128 0.63931896
- 1.38069039 1.28113944 0.73265086 1.2341761 ]</t>
+          <t>[0.23795862 0.91362743 1.02054123 0.78045272 0.94422322 0.64249085
+ 1.36890681 1.28091753 0.73263884 1.21821166]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[1.0260834  2.71250717 5.2203879  3.21201715 3.97933537 2.5918889
- 6.66413826 4.73830926 2.6014437  5.35668193]</t>
+          <t>[1.05247925 3.28012156 4.67124087 2.97693165 3.39208306 2.6047482
+ 6.6072628  4.7374885  2.60140102 5.28739162]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.05712957 0.06049331 0.07452867 0.06653394 0.07146825 0.057939
- 0.06245868 0.06972921 0.04146972 0.07230454]</t>
+          <t>[0.05872801 0.07572035 0.06028074 0.06374205 0.0637543  0.057531
+ 0.0620177  0.06971957 0.04146925 0.0716132 ]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[52.27272727 61.36363636 45.45454545 54.54545455 70.45454545 47.72727273
- 40.90909091 47.72727273 43.18181818 45.45454545]</t>
+          <t>[43.18181818 59.09090909 43.18181818 47.72727273 54.54545455 45.45454545
+ 43.18181818 68.18181818 56.81818182 54.54545455]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[5. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.93 $\pm$ 0.34 &amp; 3.81 $\pm$ 1.60 &amp; 0.06 $\pm$ 0.94 &amp; 50.91 $\pm$ 8.64 &amp; 5 $\pm$ 0</t>
+          <t>R-NMR &amp; 0.91 $\pm$ 0.32 &amp; 3.72 $\pm$ 1.52 &amp; 0.06 $\pm$ 0.89 &amp; 51.59 $\pm$ 8.01 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.53 (0.12)</t>
+          <t>0.51 (0.13)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>49.32 (8.20)</t>
+          <t>47.50 (6.78)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,41 +2608,41 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 1 \\</t>
+          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.11719613 0.18537561 0.11964494 0.10614166 0.1373107  0.09300005
- 0.15810014 0.11526532 0.12948795 0.15519389]</t>
+          <t>[0.11020229 0.17456172 0.1220889  0.10282657 0.1168752  0.08670218
+ 0.15595174 0.11034431 0.12545717 0.15246012]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.51835272 0.66553884 0.54764113 0.40486304 0.49328303 0.37703529
- 0.76309735 0.42631013 0.45977645 0.67358647]</t>
+          <t>[0.48741931 0.62671463 0.55882764 0.3922181  0.41986934 0.35150281
+ 0.75272776 0.40810972 0.44546424 0.66172108]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.02650849 0.01165162 0.00991554 0.01043814 0.0075204  0.0077179
- 0.00558364 0.00488792 0.00618512 0.00736441]</t>
+          <t>[0.02423862 0.01127515 0.01036771 0.01014253 0.00602212 0.0070001
+ 0.00545891 0.00481382 0.00605192 0.0072148 ]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[36.36363636 45.45454545 52.27272727 38.63636364 59.09090909 45.45454545
- 52.27272727 63.63636364 54.54545455 45.45454545]</t>
+          <t>[38.63636364 43.18181818 50.         36.36363636 52.27272727 43.18181818
+ 50.         54.54545455 59.09090909 47.72727273]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[2. 3. 4. 5. 4. 4. 4. 4. 5. 4.]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.13 $\pm$ 0.03 &amp; 0.53 $\pm$ 0.12 &amp; 0.01 $\pm$ 0.59 &amp; 49.32 $\pm$ 8.20 &amp; 4 $\pm$ 1</t>
+          <t>R-NTSK &amp; 0.13 $\pm$ 0.03 &amp; 0.51 $\pm$ 0.13 &amp; 0.01 $\pm$ 0.54 &amp; 47.50 $\pm$ 6.78 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2657,62 +2657,62 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.16 (0.04)</t>
+          <t>0.15 (0.03)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.67 (0.18)</t>
+          <t>0.62 (0.17)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.01 (0.01)</t>
+          <t>0.01 (0.00)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>49.32 (8.20)</t>
+          <t>47.50 (6.78)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4 (1)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.11768068 0.20196456 0.13117559 0.12875446 0.21085833 0.12836102
- 0.21202331 0.16399966 0.14296996 0.21044199]</t>
+          <t>[0.11024576 0.18874125 0.1274656  0.12484613 0.18248402 0.11353317
+ 0.20215551 0.15345309 0.13717912 0.20081135]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.52049585 0.72509677 0.60041944 0.49111653 0.75749988 0.5203936
- 1.02336676 0.60655466 0.5076474  0.91337921]</t>
+          <t>[0.48761158 0.67762221 0.58343799 0.47620874 0.65556633 0.46027941
+ 0.97573816 0.56754804 0.48708568 0.87157946]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.02692225 0.01319016 0.01105036 0.01326961 0.01314756 0.01164155
- 0.00814704 0.00783002 0.00732889 0.01093148]</t>
+          <t>[0.02456081 0.01265716 0.01124836 0.01287319 0.01138235 0.0102236
+ 0.00786775 0.00735655 0.00707825 0.01038607]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[36.36363636 45.45454545 52.27272727 38.63636364 59.09090909 45.45454545
- 52.27272727 63.63636364 54.54545455 45.45454545]</t>
+          <t>[38.63636364 43.18181818 50.         36.36363636 52.27272727 43.18181818
+ 50.         54.54545455 59.09090909 47.72727273]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[2. 3. 4. 5. 4. 4. 4. 4. 5. 4.]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.16 $\pm$ 0.04 &amp; 0.67 $\pm$ 0.18 &amp; 0.01 $\pm$ 0.53 &amp; 49.32 $\pm$ 8.20 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.15 $\pm$ 0.03 &amp; 0.62 $\pm$ 0.17 &amp; 0.01 $\pm$ 0.48 &amp; 47.50 $\pm$ 6.78 &amp; "-"</t>
         </is>
       </c>
     </row>
